--- a/biology/Botanique/Mill_Ends_Park/Mill_Ends_Park.xlsx
+++ b/biology/Botanique/Mill_Ends_Park/Mill_Ends_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mill Ends Park (appelé parfois Mill's End Park par erreur[1]), situé à Portland (États-Unis), est un pot de fleur créé le jour de la fête de la Saint-Patrick en 1948, destiné à être une colonie de Leprechauns et un parcours de choix pour des courses d'escargots. C'est le plus petit parc du monde, reconnu par le Livre Guinness des records.
+Mill Ends Park (appelé parfois Mill's End Park par erreur), situé à Portland (États-Unis), est un pot de fleur créé le jour de la fête de la Saint-Patrick en 1948, destiné à être une colonie de Leprechauns et un parcours de choix pour des courses d'escargots. C'est le plus petit parc du monde, reconnu par le Livre Guinness des records.
 Le pot de fleur est un cercle de 61 cm de diamètre édifié à l'emplacement prévu pour un lampadaire au milieu d'un boulevard. Le pot de fleur recouvre une surface totale de 0,292 m2.
 </t>
         </is>
